--- a/R22 results/result14/D14_DHT_IN_WALL_PRE.xlsx
+++ b/R22 results/result14/D14_DHT_IN_WALL_PRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git repo\office-saving-energy\Raw\Each day DHT\14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git repo\office-saving-energy\R22 results\result14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="30" windowWidth="18975" windowHeight="8640"/>
+    <workbookView xWindow="3495" yWindow="30" windowWidth="18975" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="IN_WALL" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <t>TempIN_WALL</t>
   </si>
   <si>
-    <t>TimeIN</t>
+    <t>RHIN_WALL</t>
   </si>
   <si>
-    <t>RHIN_WALL</t>
+    <t>TimeIN_WALL</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
   <dimension ref="A1:D1082"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
